--- a/MavenBook/src/test/resources/SalesReturnData.xlsx
+++ b/MavenBook/src/test/resources/SalesReturnData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SalesReturnHeader" sheetId="1" r:id="rId1"/>
@@ -56,22 +56,22 @@
     <t>Reference No</t>
   </si>
   <si>
-    <t>26112025</t>
-  </si>
-  <si>
     <t>Banana</t>
   </si>
   <si>
     <t>Orange</t>
   </si>
   <si>
-    <t>29112025</t>
-  </si>
-  <si>
     <t>sarath</t>
   </si>
   <si>
     <t>SI13</t>
+  </si>
+  <si>
+    <t>03122025</t>
+  </si>
+  <si>
+    <t>3122025</t>
   </si>
 </sst>
 </file>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,10 +504,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>3</v>
@@ -516,10 +516,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>6</v>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,10 +718,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>1</v>

--- a/MavenBook/src/test/resources/SalesReturnData.xlsx
+++ b/MavenBook/src/test/resources/SalesReturnData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="SalesReturnHeader" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Customer Name</t>
   </si>
@@ -50,12 +50,6 @@
     <t>Return Date</t>
   </si>
   <si>
-    <t>Payment Terms not Req</t>
-  </si>
-  <si>
-    <t>Reference No</t>
-  </si>
-  <si>
     <t>Banana</t>
   </si>
   <si>
@@ -68,10 +62,13 @@
     <t>SI13</t>
   </si>
   <si>
-    <t>03122025</t>
-  </si>
-  <si>
-    <t>3122025</t>
+    <t>23122025</t>
+  </si>
+  <si>
+    <t>16122025</t>
+  </si>
+  <si>
+    <t>Reference Number</t>
   </si>
 </sst>
 </file>
@@ -458,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,13 +467,12 @@
     <col min="2" max="3" width="16" style="8" customWidth="1"/>
     <col min="4" max="4" width="21.140625" style="8" customWidth="1"/>
     <col min="5" max="5" width="17" style="8" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="8"/>
+    <col min="6" max="6" width="18.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -493,21 +489,18 @@
         <v>10</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>3</v>
@@ -516,172 +509,172 @@
         <v>7</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="E22" s="9"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="E24" s="9"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="9"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="9"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
     </row>
   </sheetData>
@@ -694,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,10 +711,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -729,10 +722,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>1</v>

--- a/MavenBook/src/test/resources/SalesReturnData.xlsx
+++ b/MavenBook/src/test/resources/SalesReturnData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Customer Name</t>
   </si>
@@ -62,20 +62,62 @@
     <t>SI13</t>
   </si>
   <si>
-    <t>23122025</t>
-  </si>
-  <si>
-    <t>16122025</t>
-  </si>
-  <si>
     <t>Reference Number</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Customer Notes</t>
+  </si>
+  <si>
+    <t>Terms And Conditions</t>
+  </si>
+  <si>
+    <t>Save As</t>
+  </si>
+  <si>
+    <t>Price List</t>
+  </si>
+  <si>
+    <t>Inclusive</t>
+  </si>
+  <si>
+    <t>notex</t>
+  </si>
+  <si>
+    <t>termsx</t>
+  </si>
+  <si>
+    <t>SAVE AND APPROVE</t>
+  </si>
+  <si>
+    <t>special price</t>
+  </si>
+  <si>
+    <t>Discount Type</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>27-12-2025</t>
+  </si>
+  <si>
+    <t>27122025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +147,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -126,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -151,6 +198,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,13 +515,18 @@
     <col min="1" max="1" width="16" style="9" customWidth="1"/>
     <col min="2" max="3" width="16" style="8" customWidth="1"/>
     <col min="4" max="4" width="21.140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17" style="9" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" style="8" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="8"/>
+    <col min="8" max="8" width="9.140625" style="8"/>
+    <col min="9" max="9" width="18.42578125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="22" style="8" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" style="8" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -485,17 +539,32 @@
       <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -509,133 +578,124 @@
         <v>7</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
-      <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
-      <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
-      <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="E10" s="9"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="E11" s="9"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="E12" s="9"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="E13" s="9"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="E16" s="9"/>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="E17" s="9"/>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="E18" s="9"/>
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="E19" s="9"/>
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="E20" s="9"/>
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
-      <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
-      <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
-      <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
-      <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
-      <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -685,10 +745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,9 +756,11 @@
     <col min="1" max="1" width="32.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -708,8 +770,14 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -719,8 +787,14 @@
       <c r="C2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -729,6 +803,12 @@
       </c>
       <c r="C3">
         <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
